--- a/August/Others - Copy/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others - Copy/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -8,17 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>Model Name</t>
   </si>
@@ -260,9 +259,6 @@
     <t>L52</t>
   </si>
   <si>
-    <t>Dealer Name: Tulip-2</t>
-  </si>
-  <si>
     <t>Daily Requisition for Tulip-2</t>
   </si>
   <si>
@@ -290,16 +286,10 @@
     <t>Mixed/Not Red</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>T130</t>
   </si>
   <si>
     <t>L55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold </t>
   </si>
   <si>
     <t>B12+</t>
@@ -320,8 +310,32 @@
     </r>
   </si>
   <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D52+</t>
+  </si>
+  <si>
+    <t>Gold &amp; Black</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>Black &amp; Gold</t>
+  </si>
+  <si>
+    <t>T140</t>
+  </si>
+  <si>
+    <t>BL97</t>
+  </si>
+  <si>
     <r>
-      <t>Black/Black_Blue/</t>
+      <t>Black/</t>
     </r>
     <r>
       <rPr>
@@ -331,38 +345,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NOT RED</t>
+      <t>Not_Red</t>
     </r>
   </si>
   <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>D52+</t>
-  </si>
-  <si>
-    <t>Gold &amp; Black</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>Dark_Blue=100,Black_Red=20</t>
-  </si>
-  <si>
-    <t>Black/ Not_Red</t>
-  </si>
-  <si>
-    <t>D37</t>
-  </si>
-  <si>
-    <t>Black &amp; Gold</t>
-  </si>
-  <si>
-    <t>T140</t>
-  </si>
-  <si>
-    <t>17.07.19</t>
+    <t>Dealer Name:   Tulip-2</t>
+  </si>
+  <si>
+    <r>
+      <t>Black/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Not_Red</t>
+    </r>
+  </si>
+  <si>
+    <t>B65</t>
+  </si>
+  <si>
+    <t>i97</t>
+  </si>
+  <si>
+    <t>Black_Impressive_Blue</t>
+  </si>
+  <si>
+    <t>Dark_Blue</t>
+  </si>
+  <si>
+    <t>30.07.19</t>
   </si>
 </sst>
 </file>
@@ -374,7 +391,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +456,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -478,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -547,49 +572,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,29 +609,13 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -671,6 +643,32 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,13 +678,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,13 +693,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,56 +1000,54 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
-      <c r="A1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
-      <c r="A2" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75">
+      <c r="A2" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>106</v>
+      <c r="E3" s="22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1090,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1102,7 +1092,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:D54" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D57" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
@@ -1123,7 +1113,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="9">
         <v>760.9</v>
@@ -1134,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
@@ -1150,12 +1140,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="9">
         <v>896.24</v>
@@ -1166,61 +1156,63 @@
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A11" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="9">
+        <v>770.92</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>30836.799999999999</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" hidden="1">
-      <c r="A12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="9">
-        <v>868.16499999999996</v>
-      </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
       <c r="A13" s="8" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9">
-        <v>901.24749999999995</v>
+        <v>868.16499999999996</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15" hidden="1">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B14" s="9">
-        <v>858.14</v>
+        <v>901.24749999999995</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10">
@@ -1228,190 +1220,192 @@
         <v>0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="15">
-      <c r="A15" s="11" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" hidden="1">
+      <c r="A15" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="9">
         <v>858.14</v>
       </c>
-      <c r="C15" s="8">
-        <v>39</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>33467.46</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" hidden="1">
+      <c r="C15" s="8"/>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="8" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B16" s="9">
-        <v>946.36</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>824.06</v>
+      </c>
+      <c r="C16" s="8">
+        <v>40</v>
+      </c>
       <c r="D16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
+        <f>B16*C16</f>
+        <v>32962.399999999994</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B17" s="9">
-        <v>980.44500000000005</v>
+        <v>858.14</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="12">
-        <f>C17*B17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9">
-        <v>975.4325</v>
+        <v>946.36</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" hidden="1">
-      <c r="A19" s="8" t="s">
-        <v>98</v>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A19" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="B19" s="9">
-        <v>1159.8900000000001</v>
+        <v>980.44500000000005</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="10">
-        <f>B19*C19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>99</v>
+      <c r="D19" s="12">
+        <f>C19*B19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" hidden="1">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B20" s="9">
-        <v>1140.845</v>
+        <v>975.4325</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="12">
-        <f>C20*B20</f>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A21" s="11" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" hidden="1">
+      <c r="A21" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="9">
-        <v>936.34</v>
+        <v>1159.8900000000001</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="D21" s="10">
+        <f>B21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1140.845</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12">
+        <f>C22*B22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="9">
+        <v>936.34</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" hidden="1">
+      <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B24" s="9">
         <v>1014.53</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" hidden="1">
-      <c r="A23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="9">
-        <v>907.26</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="9">
-        <v>1159.8924999999999</v>
-      </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>86</v>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B25" s="9">
-        <v>2309.7600000000002</v>
+        <v>907.26</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" hidden="1">
-      <c r="A26" s="8" t="s">
-        <v>74</v>
+      <c r="E25" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A26" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="9">
-        <v>2710.76</v>
+        <v>1159.8924999999999</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="10">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1421,10 +1415,10 @@
     </row>
     <row r="27" spans="1:5" ht="15" hidden="1">
       <c r="A27" s="8" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B27" s="9">
-        <v>6397.96</v>
+        <v>2309.7600000000002</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="10">
@@ -1433,30 +1427,28 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B28" s="9">
-        <v>5158.8649999999998</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7</v>
-      </c>
+        <v>2710.76</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
-        <v>36112.055</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="8" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B29" s="9">
-        <v>5334.3029999999999</v>
+        <v>6397.96</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="10">
@@ -1467,160 +1459,162 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="8" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B30" s="9">
-        <v>5819.5124999999998</v>
+        <v>5158.8649999999998</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" hidden="1">
+      <c r="E30" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B31" s="9">
-        <v>5607.9849999999997</v>
-      </c>
-      <c r="C31" s="8"/>
+        <v>5334.3029999999999</v>
+      </c>
+      <c r="C31" s="8">
+        <v>10</v>
+      </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>53343.03</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B32" s="9">
-        <v>5793.4475000000002</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="8" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B33" s="9">
-        <v>7714.2375000000002</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="8" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B34" s="9">
-        <v>7722.2574999999997</v>
+        <v>5793.4475000000002</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="8" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B35" s="9">
-        <v>6369.8850000000002</v>
+        <v>7714.2375000000002</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="8" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B36" s="9">
-        <v>8967.36</v>
+        <v>7722.2574999999997</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37" s="9">
-        <v>8134.2849999999999</v>
+        <v>6369.8850000000002</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" ht="15">
+      <c r="E37" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="8" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B38" s="9">
-        <v>1169.9175</v>
-      </c>
-      <c r="C38" s="8">
-        <v>13</v>
-      </c>
+        <v>6715.95</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="10">
-        <f>C38*B38</f>
-        <v>15208.9275</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="8" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B39" s="9">
-        <v>1199.9925000000001</v>
+        <v>8967.36</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B40" s="9">
-        <v>1189.9675</v>
+        <v>8134.2849999999999</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="10">
@@ -1631,24 +1625,26 @@
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B41" s="9">
-        <v>1423.55</v>
+        <v>1169.9175</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="8"/>
+        <f>C41*B41</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="9">
-        <v>1435.58</v>
+        <v>1199.9925000000001</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="10">
@@ -1659,10 +1655,10 @@
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B43" s="9">
-        <v>1053.6275000000001</v>
+        <v>1189.9675</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="10">
@@ -1670,15 +1666,15 @@
         <v>0</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B44" s="9">
-        <v>1072.675</v>
+        <v>1423.55</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="10">
@@ -1689,125 +1685,131 @@
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B45" s="9">
-        <v>985.46</v>
+        <v>1435.58</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B46" s="9">
-        <v>1014.53</v>
+        <v>1053.6275000000001</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B47" s="9">
         <v>1072.675</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9">
-        <v>1077.6875</v>
+        <v>985.46</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="10">
-        <f>B48*C48</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" hidden="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B49" s="9">
-        <v>1024.5550000000001</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>1014.53</v>
+      </c>
+      <c r="C49" s="8">
+        <v>30</v>
+      </c>
       <c r="D49" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="8"/>
+        <v>30435.899999999998</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="8" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B50" s="9">
-        <v>1101.7474999999999</v>
+        <v>1072.675</v>
       </c>
       <c r="C50" s="8"/>
-      <c r="D50" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D50" s="10"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="8" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B51" s="9">
-        <v>1072.675</v>
+        <v>1077.6875</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="10">
-        <f t="shared" si="0"/>
+        <f>B51*C51</f>
         <v>0</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B52" s="9">
-        <v>1297.2349999999999</v>
+        <v>1024.5550000000001</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B53" s="9">
-        <v>11964.8375</v>
+        <v>1101.7474999999999</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="10">
@@ -1818,10 +1820,10 @@
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>5607.9849999999997</v>
+        <v>1072.675</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="10">
@@ -1829,119 +1831,117 @@
         <v>0</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="8" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B55" s="9">
-        <v>5183.9274999999998</v>
+        <v>1297.2349999999999</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="10">
-        <f t="shared" ref="D55:D77" si="1">C55*B55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B56" s="9">
-        <v>5455.6049999999996</v>
+        <v>11964.8375</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B57" s="9">
-        <v>4526.2875000000004</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B58" s="9">
-        <v>5510.7425000000003</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D58:D80" si="1">C58*B58</f>
         <v>0</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B59" s="9">
-        <v>4896.21</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="8" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B60" s="9">
-        <v>5150.8450000000003</v>
+        <v>4526.2875000000004</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="8" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B61" s="9">
-        <v>4973.4025000000001</v>
+        <v>5510.7425000000003</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B62" s="9">
-        <v>4701.7299999999996</v>
+        <v>4896.21</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="10">
@@ -1949,105 +1949,105 @@
         <v>0</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B63" s="9">
-        <v>5940.8149999999996</v>
+        <v>5150.8450000000003</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="10">
-        <f>C63*B63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:5" ht="15" hidden="1">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9">
-        <v>5257.11</v>
-      </c>
-      <c r="C64" s="8"/>
+        <v>4973.4025000000001</v>
+      </c>
+      <c r="C64" s="8">
+        <v>2</v>
+      </c>
       <c r="D64" s="10">
-        <f>C64*B64</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="8"/>
+        <f t="shared" si="1"/>
+        <v>9946.8050000000003</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B65" s="9">
-        <v>3556.87</v>
+        <v>4701.7299999999996</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B66" s="9">
-        <v>3471.6574999999998</v>
+        <v>5940.8149999999996</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>86</v>
-      </c>
+        <f>C66*B66</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B67" s="9">
-        <v>3257.1224999999999</v>
+        <v>5257.11</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>99</v>
-      </c>
+        <f>C67*B67</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B68" s="9">
-        <v>4389.9475000000002</v>
+        <v>3556.87</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B69" s="9">
-        <v>3618.0225</v>
+        <v>3471.6574999999998</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10">
@@ -2055,15 +2055,15 @@
         <v>0</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70" s="9">
-        <v>3530.8049999999998</v>
+        <v>3257.1224999999999</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="10">
@@ -2071,43 +2071,47 @@
         <v>0</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B71" s="9">
-        <v>4507.24</v>
+        <v>4389.9475000000002</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" s="9">
-        <v>4408.9949999999999</v>
+        <v>3618.0225</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B73" s="9">
-        <v>3979.9250000000002</v>
+        <v>3530.8049999999998</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="10">
@@ -2115,203 +2119,264 @@
         <v>0</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="8" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B74" s="9">
-        <v>4115.2624999999998</v>
+        <v>4507.24</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="8" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B75" s="9">
-        <v>1219.04</v>
+        <v>4408.9949999999999</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="10">
-        <f>B75*C75</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14.25" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B76" s="9">
-        <v>1336.3325</v>
-      </c>
-      <c r="C76" s="8">
-        <v>37</v>
-      </c>
+        <v>3979.9250000000002</v>
+      </c>
+      <c r="C76" s="8"/>
       <c r="D76" s="10">
-        <f>B76*C76</f>
-        <v>49444.302499999998</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B77" s="9">
-        <v>8599.4449999999997</v>
+        <v>4115.2624999999998</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" ht="15">
-      <c r="A78" s="37" t="s">
+      <c r="E77" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="9">
+        <v>1219.04</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="10">
+        <f>B78*C78</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="9">
+        <v>1336.3325</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="10">
+        <f>B79*C79</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" hidden="1">
+      <c r="A80" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="9">
+        <v>8599.4449999999997</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A81" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="24">
-        <f>SUM(C5:C77)</f>
-        <v>96</v>
-      </c>
-      <c r="D78" s="25">
-        <f>SUM(D5:D77)</f>
-        <v>134232.745</v>
-      </c>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="21"/>
-    </row>
-    <row r="81" spans="1:9" s="22" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="21"/>
-    </row>
-    <row r="82" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="13"/>
-      <c r="B82" s="38" t="s">
+      <c r="B81" s="41"/>
+      <c r="C81" s="18">
+        <f>SUM(C5:C80)</f>
+        <v>122</v>
+      </c>
+      <c r="D81" s="19">
+        <f>SUM(D5:D80)</f>
+        <v>157524.935</v>
+      </c>
+      <c r="E81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="25"/>
+    </row>
+    <row r="84" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A84" s="30"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="25"/>
+    </row>
+    <row r="85" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="31"/>
+      <c r="B85" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16" t="s">
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="26"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="32"/>
+      <c r="B86" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C86" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D86" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="I83" s="17"/>
-    </row>
-    <row r="84" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="8" t="s">
+      <c r="E86" s="26"/>
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A87" s="33"/>
+      <c r="B87" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="8" t="s">
+      <c r="C87" s="23"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="26"/>
+    </row>
+    <row r="88" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A88" s="33"/>
+      <c r="B88" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="29">
-        <v>140000</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A86" s="18"/>
-      <c r="B86" s="8" t="s">
+      <c r="C88" s="23">
+        <v>150000</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+    </row>
+    <row r="89" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A89" s="33"/>
+      <c r="B89" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="8" t="s">
+      <c r="C89" s="23"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+    </row>
+    <row r="90" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A90" s="33"/>
+      <c r="B90" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="14"/>
-    </row>
-    <row r="88" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="18"/>
-      <c r="B88" s="8" t="s">
+      <c r="C90" s="23"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="28"/>
+    </row>
+    <row r="91" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A91" s="33"/>
+      <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="8" t="s">
+      <c r="C91" s="23"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="28"/>
+    </row>
+    <row r="92" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A92" s="33"/>
+      <c r="B92" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="14"/>
-    </row>
-    <row r="90" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A90" s="15"/>
-      <c r="B90" s="19" t="s">
+      <c r="C92" s="23"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="28"/>
+    </row>
+    <row r="93" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A93" s="32"/>
+      <c r="B93" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="30">
-        <f>SUM(C84:C89)</f>
-        <v>140000</v>
-      </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="14"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="3"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="C93" s="24">
+        <f>SUBTOTAL(9,C87:C92)</f>
+        <v>150000</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="28"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="34"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="29"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="E95" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E78">
+  <autoFilter ref="A4:E81">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2321,26 +2386,12 @@
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:E43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>